--- a/cntime_statistic.xlsx
+++ b/cntime_statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\NiR\rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B5293-EE46-4DE8-A2F6-6541E811198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9E5B3-DB39-4BE7-994E-3253B5D09BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11775" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{4122E50D-BDC6-48AF-82AC-9398D45C667C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4122E50D-BDC6-48AF-82AC-9398D45C667C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>минимальное</t>
   </si>
@@ -70,6 +70,24 @@
   <si>
     <t>Вычисление времени до столкновения для одной пары звеньев</t>
   </si>
+  <si>
+    <t>имена рядов</t>
+  </si>
+  <si>
+    <t>схема 2 две фазы</t>
+  </si>
+  <si>
+    <t>схема 1 три фазы</t>
+  </si>
+  <si>
+    <t>схема 1 две фазы</t>
+  </si>
+  <si>
+    <t>схема 2 три фазы</t>
+  </si>
+  <si>
+    <t>Затраты стека (вычислено кайлом), б</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -314,11 +332,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -373,7 +449,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -391,14 +473,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -414,6 +503,4352 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для второй схемы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11040160642570279"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C8C-4869-B23E-D5A4D5EC3067}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80C4-4830-BBF9-1D3B55B066C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$F$16,Лист1!$F$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C8C-4869-B23E-D5A4D5EC3067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для первой схемы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E732-41D4-9645-ADCBBBB1A999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E732-41D4-9645-ADCBBBB1A999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$G$16,Лист1!$G$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E732-41D4-9645-ADCBBBB1A999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для второй схемы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11040160642570279"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C962-4B42-A95F-F55C8F33C01A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C962-4B42-A95F-F55C8F33C01A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$H$16,Лист1!$H$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C962-4B42-A95F-F55C8F33C01A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для первой схемы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD58-4691-A613-AC7206402B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD58-4691-A613-AC7206402B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$I$16,Лист1!$I$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD58-4691-A613-AC7206402B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>минимальное значение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$T$12:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>схема 2 три фазы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>схема 1 три фазы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>схема 2 две фазы</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>схема 1 две фазы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>среднее значение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>максимальное значение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="517881471"/>
+        <c:axId val="245270895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="517881471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245270895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="245270895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517881471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB863E3F-31E4-4402-A5B4-9D1CEDC23C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8382E521-AA27-43DF-A065-07FB8C583A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3235B965-B93B-4201-BF5A-82B9256A22D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E503C9-698B-41ED-818E-DDED0BC69BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>919162</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166B1700-416B-4726-923A-B055EF623700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129202EA-FEAE-4B1E-9A22-09289E592364}">
-  <dimension ref="C10:I32"/>
+  <dimension ref="C10:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,13 +5163,13 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="31" t="s">
+    <row r="10" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
@@ -747,9 +5182,12 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="34" t="s">
+    <row r="12" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="27"/>
@@ -766,12 +5204,15 @@
       <c r="I12" s="13">
         <v>2</v>
       </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -783,10 +5224,17 @@
       <c r="G13" s="4">
         <v>119</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="4">
+        <v>77</v>
+      </c>
+      <c r="I13" s="5">
+        <v>118</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="21"/>
       <c r="E14" s="2" t="s">
@@ -798,10 +5246,17 @@
       <c r="G14" s="1">
         <v>629</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="1">
+        <v>465</v>
+      </c>
+      <c r="I14" s="2">
+        <v>501</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
       <c r="D15" s="21"/>
       <c r="E15" s="2" t="s">
@@ -813,10 +5268,17 @@
       <c r="G15" s="1">
         <v>1725</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="1">
+        <v>1352</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1957</v>
+      </c>
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="D16" s="22" t="s">
         <v>10</v>
@@ -828,8 +5290,12 @@
       <c r="G16" s="1">
         <v>13.6</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I16" s="2">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="19"/>
@@ -843,8 +5309,12 @@
       <c r="G17" s="9">
         <v>21663</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9">
+        <v>79157</v>
+      </c>
+      <c r="I17" s="10">
+        <v>54634</v>
+      </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
@@ -862,8 +5332,12 @@
       <c r="G18" s="16">
         <v>5</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="18"/>
@@ -877,8 +5351,12 @@
       <c r="G19" s="1">
         <v>44</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
@@ -892,8 +5370,12 @@
       <c r="G20" s="1">
         <v>135</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="1">
+        <v>135</v>
+      </c>
+      <c r="I20" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="18"/>
@@ -907,8 +5389,12 @@
       <c r="G21" s="1">
         <v>4.38</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="26"/>
@@ -922,14 +5408,18 @@
       <c r="G22" s="12">
         <v>99492</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="12">
+        <v>60480</v>
+      </c>
+      <c r="I22" s="13">
+        <v>61191</v>
+      </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -941,11 +5431,15 @@
       <c r="G23" s="4">
         <v>8</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2" t="s">
         <v>2</v>
@@ -956,11 +5450,15 @@
       <c r="G24" s="1">
         <v>335</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="1">
+        <v>809</v>
+      </c>
+      <c r="I24" s="2">
+        <v>600</v>
+      </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="21"/>
       <c r="E25" s="2" t="s">
         <v>1</v>
@@ -971,11 +5469,15 @@
       <c r="G25" s="1">
         <v>8132</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="1">
+        <v>5105</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9015</v>
+      </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="22" t="s">
         <v>10</v>
       </c>
@@ -986,11 +5488,15 @@
       <c r="G26" s="1">
         <v>21.2</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="1">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2">
+        <v>36.700000000000003</v>
+      </c>
     </row>
     <row r="27" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="37"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="24" t="s">
         <v>4</v>
       </c>
@@ -1001,8 +5507,12 @@
       <c r="G27" s="9">
         <v>63396</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="9">
+        <v>60480</v>
+      </c>
+      <c r="I27" s="10">
+        <v>61191</v>
+      </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -1020,8 +5530,12 @@
       <c r="G28" s="16">
         <v>845</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="16">
+        <v>2897</v>
+      </c>
+      <c r="I28" s="14">
+        <v>609</v>
+      </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="18"/>
@@ -1035,8 +5549,12 @@
       <c r="G29" s="1">
         <v>3770</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="1">
+        <v>7790</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5920</v>
+      </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="18"/>
@@ -1050,8 +5568,12 @@
       <c r="G30" s="1">
         <v>15448</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="1">
+        <v>12447</v>
+      </c>
+      <c r="I30" s="2">
+        <v>24400</v>
+      </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="18"/>
@@ -1065,26 +5587,50 @@
       <c r="G31" s="1">
         <v>26.5</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>40.299999999999997</v>
+      </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="19"/>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="8">
+      <c r="E32" s="28"/>
+      <c r="F32" s="11">
         <v>6854</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="12">
         <v>7044</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="12">
+        <v>6720</v>
+      </c>
+      <c r="I32" s="13">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41">
+        <v>4528</v>
+      </c>
+      <c r="I33" s="42">
+        <v>4536</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -1106,5 +5652,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cntime_statistic.xlsx
+++ b/cntime_statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\NiR\rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B5293-EE46-4DE8-A2F6-6541E811198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCDFD3C-517A-4EE7-8D97-30420013136B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11775" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{4122E50D-BDC6-48AF-82AC-9398D45C667C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4122E50D-BDC6-48AF-82AC-9398D45C667C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>минимальное</t>
   </si>
@@ -70,6 +70,24 @@
   <si>
     <t>Вычисление времени до столкновения для одной пары звеньев</t>
   </si>
+  <si>
+    <t>имена рядов</t>
+  </si>
+  <si>
+    <t>схема 2 две фазы</t>
+  </si>
+  <si>
+    <t>схема 1 три фазы</t>
+  </si>
+  <si>
+    <t>схема 1 две фазы</t>
+  </si>
+  <si>
+    <t>схема 2 три фазы</t>
+  </si>
+  <si>
+    <t>Затраты стека (вычислено кайлом), б</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -314,11 +332,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -336,16 +412,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,21 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -389,6 +454,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -414,6 +503,4502 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для второй схемы, 3 фазы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11040160642570279"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C8C-4869-B23E-D5A4D5EC3067}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80C4-4830-BBF9-1D3B55B066C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$F$16,Лист1!$F$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C8C-4869-B23E-D5A4D5EC3067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для первой схемы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, 3 фазы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E732-41D4-9645-ADCBBBB1A999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E732-41D4-9645-ADCBBBB1A999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$G$16,Лист1!$G$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E732-41D4-9645-ADCBBBB1A999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для второй схемы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, 2 фазы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11040160642570279"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C962-4B42-A95F-F55C8F33C01A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C962-4B42-A95F-F55C8F33C01A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$H$16,Лист1!$H$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C962-4B42-A95F-F55C8F33C01A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение затрат времени для первой схемы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, 2 фазы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Распределение затрат времени</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD58-4691-A613-AC7206402B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD58-4691-A613-AC7206402B43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Лист1!$C$13,Лист1!$C$18,Лист1!$C$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GJK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вычисление времени до столкновения для одной пары звеньев</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Лист1!$I$16,Лист1!$I$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD58-4691-A613-AC7206402B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>минимальное значение, мкс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$T$12:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>схема 2 три фазы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>схема 1 три фазы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>схема 2 две фазы</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>схема 1 две фазы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>среднее значение, мкс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>максимальное значение, мкс</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F327-4A39-B157-22C85B4E4DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>использумый стек, б</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E32-442C-9A6D-1C6A80331666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="517881471"/>
+        <c:axId val="245270895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="517881471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245270895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="245270895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время, мкс / используемый стек, б</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517881471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB863E3F-31E4-4402-A5B4-9D1CEDC23C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8382E521-AA27-43DF-A065-07FB8C583A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3235B965-B93B-4201-BF5A-82B9256A22D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E503C9-698B-41ED-818E-DDED0BC69BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166B1700-416B-4726-923A-B055EF623700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,10 +5298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129202EA-FEAE-4B1E-9A22-09289E592364}">
-  <dimension ref="C10:I32"/>
+  <dimension ref="C10:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,13 +5313,13 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="31" t="s">
+    <row r="10" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
@@ -747,13 +5332,16 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="34" t="s">
+    <row r="12" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11">
         <v>3</v>
       </c>
@@ -766,12 +5354,15 @@
       <c r="I12" s="13">
         <v>2</v>
       </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -783,12 +5374,19 @@
       <c r="G13" s="4">
         <v>119</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="4">
+        <v>77</v>
+      </c>
+      <c r="I13" s="5">
+        <v>118</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="21"/>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="37"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,12 +5396,19 @@
       <c r="G14" s="1">
         <v>629</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="1">
+        <v>465</v>
+      </c>
+      <c r="I14" s="2">
+        <v>501</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="21"/>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="37"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
@@ -813,44 +5418,59 @@
       <c r="G15" s="1">
         <v>1725</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="1">
+        <v>1352</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1957</v>
+      </c>
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="22" t="s">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="37"/>
+      <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="7">
         <v>23.6</v>
       </c>
       <c r="G16" s="1">
         <v>13.6</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I16" s="2">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="8">
         <v>36609</v>
       </c>
       <c r="G17" s="9">
         <v>21663</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9">
+        <v>79157</v>
+      </c>
+      <c r="I17" s="10">
+        <v>54634</v>
+      </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -862,12 +5482,16 @@
       <c r="G18" s="16">
         <v>5</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,12 +5501,16 @@
       <c r="G19" s="1">
         <v>44</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
@@ -892,44 +5520,56 @@
       <c r="G20" s="1">
         <v>135</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="1">
+        <v>135</v>
+      </c>
+      <c r="I20" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="6">
         <v>7.49</v>
       </c>
       <c r="G21" s="1">
         <v>4.38</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="26"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="11">
         <v>150057</v>
       </c>
       <c r="G22" s="12">
         <v>99492</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="12">
+        <v>60480</v>
+      </c>
+      <c r="I22" s="13">
+        <v>61191</v>
+      </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -941,12 +5581,16 @@
       <c r="G23" s="4">
         <v>8</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
@@ -956,12 +5600,16 @@
       <c r="G24" s="1">
         <v>335</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="1">
+        <v>809</v>
+      </c>
+      <c r="I24" s="2">
+        <v>600</v>
+      </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
@@ -971,44 +5619,56 @@
       <c r="G25" s="1">
         <v>8132</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="1">
+        <v>5105</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9015</v>
+      </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="G26" s="1">
         <v>21.2</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="1">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2">
+        <v>36.700000000000003</v>
+      </c>
     </row>
     <row r="27" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="37"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="8">
         <v>61686</v>
       </c>
       <c r="G27" s="9">
         <v>63396</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="9">
+        <v>60480</v>
+      </c>
+      <c r="I27" s="10">
+        <v>61191</v>
+      </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -1020,12 +5680,16 @@
       <c r="G28" s="16">
         <v>845</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="16">
+        <v>2897</v>
+      </c>
+      <c r="I28" s="14">
+        <v>609</v>
+      </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
@@ -1035,12 +5699,16 @@
       <c r="G29" s="1">
         <v>3770</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="1">
+        <v>7790</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5920</v>
+      </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="2" t="s">
         <v>1</v>
       </c>
@@ -1050,41 +5718,76 @@
       <c r="G30" s="1">
         <v>15448</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="1">
+        <v>12447</v>
+      </c>
+      <c r="I30" s="2">
+        <v>24400</v>
+      </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="6">
         <v>41.6</v>
       </c>
       <c r="G31" s="1">
         <v>26.5</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>40.299999999999997</v>
+      </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="19"/>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="8">
+      <c r="E32" s="35"/>
+      <c r="F32" s="11">
         <v>6854</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="12">
         <v>7044</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="12">
+        <v>6720</v>
+      </c>
+      <c r="I32" s="13">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="20">
+        <v>4992</v>
+      </c>
+      <c r="G33" s="17">
+        <v>4992</v>
+      </c>
+      <c r="H33" s="18">
+        <v>4528</v>
+      </c>
+      <c r="I33" s="19">
+        <v>4536</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -1100,11 +5803,9 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>